--- a/resources/Dates_F21.xlsx
+++ b/resources/Dates_F21.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>url</t>
   </si>
@@ -236,10 +236,13 @@
     <t>CATCH UP DAY</t>
   </si>
   <si>
-    <t>Getting R/RStudio Organized</t>
-  </si>
-  <si>
     <t>NO CLASS (THANKSGIVING)</t>
+  </si>
+  <si>
+    <t>Rstart</t>
+  </si>
+  <si>
+    <t>Getting Organized in Rstudio</t>
   </si>
 </sst>
 </file>
@@ -583,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1050,10 @@
         <v>44494</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1263,7 +1269,7 @@
         <v>44524</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1278,7 +1284,7 @@
         <v>44526</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
